--- a/DNA_Upgrade_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/DNA_Upgrade_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\OLB\InstantOpen_Automation\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECUProjects\DNA_Upgrade_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE6637E-5A70-496F-AE37-6924FE0E5501}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7CCD3F-2594-4D09-BE2D-445CA4592003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U5" sqref="U5"/>
     </sheetView>

--- a/DNA_Upgrade_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/DNA_Upgrade_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECUProjects\DNA_Upgrade_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7CCD3F-2594-4D09-BE2D-445CA4592003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE288D2-FCDA-48A6-A91B-5090B2271866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -194,15 +194,6 @@
     <t>C24215_HighYieldChecking</t>
   </si>
   <si>
-    <t>034567567</t>
-  </si>
-  <si>
-    <t>02/01/1960</t>
-  </si>
-  <si>
-    <t>8229318</t>
-  </si>
-  <si>
     <t>C24213_VerifySingleCheckStopPayment</t>
   </si>
   <si>
@@ -257,14 +248,23 @@
     <t>2365</t>
   </si>
   <si>
-    <t>8229319</t>
+    <t>8240416</t>
+  </si>
+  <si>
+    <t>987-56-7872</t>
+  </si>
+  <si>
+    <t>01/08/1972</t>
+  </si>
+  <si>
+    <t>C24217_MoneyMarketProduct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +284,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -320,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -637,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,10 +757,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
@@ -760,18 +769,18 @@
         <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
@@ -780,14 +789,25 @@
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,12 +1179,13 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9200CF74-EA66-4F97-9C5C-20C8F9562672}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{3C3037BD-5204-4A9A-ABE3-C497536C366E}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{8D06D0BD-DDF7-4C4B-AF1A-8E8739C0DA4A}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{CE5681DE-E3B0-4B04-A498-3F0E690ACDEC}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{D17112A8-C091-4245-B00A-7EF7858629A5}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{189F3566-96EB-48EC-A09E-5B29DF50EDC1}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{D17112A8-C091-4245-B00A-7EF7858629A5}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{189F3566-96EB-48EC-A09E-5B29DF50EDC1}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{CE5681DE-E3B0-4B04-A498-3F0E690ACDEC}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{64EF6CA5-D482-4A5F-9C74-7FBC53827F16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1172,9 +1193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U5" sqref="U5"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,13 +1353,13 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1349,13 +1370,13 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1366,13 +1387,13 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>50</v>
@@ -1389,19 +1410,42 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -1495,7 +1539,9 @@
       <c r="D30" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1520,56 +1566,56 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/DNA_Upgrade_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/DNA_Upgrade_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECUProjects\DNA_Upgrade_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE288D2-FCDA-48A6-A91B-5090B2271866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB528A-5D40-48C4-9582-21A849C151DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -248,16 +248,25 @@
     <t>2365</t>
   </si>
   <si>
-    <t>8240416</t>
-  </si>
-  <si>
-    <t>987-56-7872</t>
-  </si>
-  <si>
-    <t>01/08/1972</t>
-  </si>
-  <si>
     <t>C24217_MoneyMarketProduct</t>
+  </si>
+  <si>
+    <t>987-56-7893</t>
+  </si>
+  <si>
+    <t>01/08/1993</t>
+  </si>
+  <si>
+    <t>8244847</t>
+  </si>
+  <si>
+    <t>987-56-7848</t>
+  </si>
+  <si>
+    <t>01/08/1948</t>
+  </si>
+  <si>
+    <t>8244853</t>
   </si>
 </sst>
 </file>
@@ -797,7 +806,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -1194,8 +1203,8 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1368,7 @@
         <v>75</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1370,13 +1379,13 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1387,13 +1396,13 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>50</v>
@@ -1416,12 +1425,12 @@
         <v>75</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1444,7 +1453,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">

--- a/DNA_Upgrade_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/DNA_Upgrade_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECUProjects\DNA_Upgrade_Automation\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\DNA_Upgrade_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB528A-5D40-48C4-9582-21A849C151DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB96FFD7-35FB-46AA-838E-640EE59B0415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>8244853</t>
+  </si>
+  <si>
+    <t>Promo_Code</t>
+  </si>
+  <si>
+    <t>BankRate</t>
   </si>
 </sst>
 </file>
@@ -1200,11 +1206,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4:I5"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,9 +1230,10 @@
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
     <col min="19" max="19" width="23.28515625" customWidth="1"/>
     <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1296,8 +1303,11 @@
       <c r="W1" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1353,8 +1363,11 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1371,7 +1384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
@@ -1388,7 +1401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -1411,7 +1424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
@@ -1428,7 +1441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1456,34 +1469,34 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
